--- a/src/test/resources/testData/testdataSheet.xlsx
+++ b/src/test/resources/testData/testdataSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poojarajput/Desktop/POOJA GIT PROJECTS /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poojarajput/Desktop/POOJA GIT PROJECTS /facebook_google_ui_automation/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54275636-8230-A246-A9FD-253FBF6866F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF88131-ABA3-DA48-A582-D8DB72C013B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="13840" xr2:uid="{AB4FC60F-E871-714A-B4E3-66FAC4D839F0}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>rajputpooja811@gmail.com</t>
+    <t>abc@gmail.com</t>
   </si>
   <si>
-    <t>Lifesearch1!</t>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
